--- a/data/raw/FlamesData.xlsx
+++ b/data/raw/FlamesData.xlsx
@@ -2349,13 +2349,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2699,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D206" sqref="D206"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="B387" sqref="B387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -28957,7 +28958,7 @@
       <c r="A387" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B387" s="1" t="s">
+      <c r="B387" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C387" s="1" t="s">
